--- a/REGULAR/CEO/MENDOZA, PRESCILA.xlsx
+++ b/REGULAR/CEO/MENDOZA, PRESCILA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="588">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1792,6 +1792,12 @@
   </si>
   <si>
     <t>9/20,21/2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>10/19,20/2023</t>
   </si>
 </sst>
 </file>
@@ -4632,9 +4638,9 @@
   <dimension ref="A2:L744"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A695" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A698" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K711" sqref="K711"/>
+      <selection pane="bottomLeft" activeCell="B714" sqref="B714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4797,7 +4803,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>36.006000000000085</v>
+        <v>37.256000000000085</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4807,7 +4813,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>39.103000000000009</v>
+        <v>38.353000000000009</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -20673,25 +20679,35 @@
       <c r="A712" s="40">
         <v>45200</v>
       </c>
-      <c r="B712" s="20"/>
-      <c r="C712" s="13"/>
+      <c r="B712" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="C712" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D712" s="39"/>
       <c r="E712" s="9"/>
       <c r="F712" s="20"/>
-      <c r="G712" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H712" s="39"/>
+      <c r="G712" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H712" s="39">
+        <v>2</v>
+      </c>
       <c r="I712" s="9"/>
       <c r="J712" s="11"/>
-      <c r="K712" s="20"/>
+      <c r="K712" s="20" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
         <v>45231</v>
       </c>
-      <c r="B713" s="20"/>
+      <c r="B713" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="C713" s="13"/>
       <c r="D713" s="39"/>
       <c r="E713" s="9"/>
@@ -20703,7 +20719,9 @@
       <c r="H713" s="39"/>
       <c r="I713" s="9"/>
       <c r="J713" s="11"/>
-      <c r="K713" s="20"/>
+      <c r="K713" s="49">
+        <v>45233</v>
+      </c>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
